--- a/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Anual.xlsx
+++ b/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Anual.xlsx
@@ -594,7 +594,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="C2">
         <v>631</v>
@@ -609,19 +609,19 @@
         <v>1677</v>
       </c>
       <c r="G2">
-        <v>15359</v>
+        <v>15355</v>
       </c>
       <c r="H2">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="I2">
         <v>2040</v>
       </c>
       <c r="J2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L2">
         <v>1214</v>
@@ -633,28 +633,28 @@
         <v>2206</v>
       </c>
       <c r="O2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P2">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q2">
         <v>3545</v>
       </c>
       <c r="R2">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="S2">
-        <v>12543</v>
+        <v>12540</v>
       </c>
       <c r="T2">
         <v>2552</v>
       </c>
       <c r="U2">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="V2">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="W2">
         <v>6898</v>
@@ -672,16 +672,16 @@
         <v>6188</v>
       </c>
       <c r="AB2">
-        <v>126249</v>
+        <v>126240</v>
       </c>
       <c r="AC2">
-        <v>11039</v>
+        <v>11037</v>
       </c>
       <c r="AD2">
         <v>651</v>
       </c>
       <c r="AE2">
-        <v>137939</v>
+        <v>137929</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -704,10 +704,10 @@
         <v>1656</v>
       </c>
       <c r="G3">
-        <v>15219</v>
+        <v>15215</v>
       </c>
       <c r="H3">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="I3">
         <v>1932</v>
@@ -725,13 +725,13 @@
         <v>1201</v>
       </c>
       <c r="N3">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="O3">
         <v>847</v>
       </c>
       <c r="P3">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="Q3">
         <v>3681</v>
@@ -740,7 +740,7 @@
         <v>8831</v>
       </c>
       <c r="S3">
-        <v>12835</v>
+        <v>12832</v>
       </c>
       <c r="T3">
         <v>2648</v>
@@ -767,16 +767,16 @@
         <v>6356</v>
       </c>
       <c r="AB3">
-        <v>128474</v>
+        <v>128464</v>
       </c>
       <c r="AC3">
-        <v>11228</v>
+        <v>11227</v>
       </c>
       <c r="AD3">
         <v>615</v>
       </c>
       <c r="AE3">
-        <v>140318</v>
+        <v>140306</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -799,10 +799,10 @@
         <v>1627</v>
       </c>
       <c r="G4">
-        <v>15225</v>
+        <v>15221</v>
       </c>
       <c r="H4">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="I4">
         <v>2157</v>
@@ -823,19 +823,19 @@
         <v>2253</v>
       </c>
       <c r="O4">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P4">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="Q4">
         <v>3805</v>
       </c>
       <c r="R4">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="S4">
-        <v>13059</v>
+        <v>13055</v>
       </c>
       <c r="T4">
         <v>2748</v>
@@ -862,16 +862,16 @@
         <v>6604</v>
       </c>
       <c r="AB4">
-        <v>131346</v>
+        <v>131335</v>
       </c>
       <c r="AC4">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="AD4">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AE4">
-        <v>143488</v>
+        <v>143475</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -894,10 +894,10 @@
         <v>1630</v>
       </c>
       <c r="G5">
-        <v>15040</v>
+        <v>15036</v>
       </c>
       <c r="H5">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="I5">
         <v>1972</v>
@@ -918,25 +918,25 @@
         <v>2237</v>
       </c>
       <c r="O5">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="P5">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="Q5">
         <v>3866</v>
       </c>
       <c r="R5">
-        <v>9514</v>
+        <v>9512</v>
       </c>
       <c r="S5">
-        <v>13208</v>
+        <v>13204</v>
       </c>
       <c r="T5">
         <v>2820</v>
       </c>
       <c r="U5">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="V5">
         <v>4847</v>
@@ -957,16 +957,16 @@
         <v>6823</v>
       </c>
       <c r="AB5">
-        <v>133421</v>
+        <v>133409</v>
       </c>
       <c r="AC5">
-        <v>11749</v>
+        <v>11747</v>
       </c>
       <c r="AD5">
         <v>643</v>
       </c>
       <c r="AE5">
-        <v>145816</v>
+        <v>145801</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -974,7 +974,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="C6">
         <v>828</v>
@@ -989,10 +989,10 @@
         <v>1528</v>
       </c>
       <c r="G6">
-        <v>15307</v>
+        <v>15302</v>
       </c>
       <c r="H6">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="I6">
         <v>1873</v>
@@ -1001,7 +1001,7 @@
         <v>376</v>
       </c>
       <c r="K6">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L6">
         <v>1179</v>
@@ -1010,13 +1010,13 @@
         <v>1224</v>
       </c>
       <c r="N6">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="O6">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P6">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Q6">
         <v>4038</v>
@@ -1025,16 +1025,16 @@
         <v>9165</v>
       </c>
       <c r="S6">
-        <v>13727</v>
+        <v>13722</v>
       </c>
       <c r="T6">
         <v>2884</v>
       </c>
       <c r="U6">
-        <v>7408</v>
+        <v>7407</v>
       </c>
       <c r="V6">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="W6">
         <v>7654</v>
@@ -1052,16 +1052,16 @@
         <v>6935</v>
       </c>
       <c r="AB6">
-        <v>134992</v>
+        <v>134979</v>
       </c>
       <c r="AC6">
-        <v>12177</v>
+        <v>12176</v>
       </c>
       <c r="AD6">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AE6">
-        <v>147867</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1069,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="C7">
         <v>866</v>
@@ -1078,19 +1078,19 @@
         <v>15584</v>
       </c>
       <c r="E7">
-        <v>14107</v>
+        <v>14108</v>
       </c>
       <c r="F7">
         <v>1487</v>
       </c>
       <c r="G7">
-        <v>15898</v>
+        <v>15892</v>
       </c>
       <c r="H7">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="I7">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="J7">
         <v>383</v>
@@ -1108,28 +1108,28 @@
         <v>2272</v>
       </c>
       <c r="O7">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P7">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="Q7">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="R7">
         <v>9309</v>
       </c>
       <c r="S7">
-        <v>14242</v>
+        <v>14237</v>
       </c>
       <c r="T7">
         <v>2968</v>
       </c>
       <c r="U7">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="V7">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="W7">
         <v>8108</v>
@@ -1147,16 +1147,16 @@
         <v>7010</v>
       </c>
       <c r="AB7">
-        <v>140013</v>
+        <v>139999</v>
       </c>
       <c r="AC7">
-        <v>12673</v>
+        <v>12672</v>
       </c>
       <c r="AD7">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AE7">
-        <v>153434</v>
+        <v>153419</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1164,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C8">
         <v>902</v>
@@ -1179,16 +1179,16 @@
         <v>1430</v>
       </c>
       <c r="G8">
-        <v>15927</v>
+        <v>15921</v>
       </c>
       <c r="H8">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="I8">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K8">
         <v>855</v>
@@ -1206,22 +1206,22 @@
         <v>885</v>
       </c>
       <c r="P8">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="Q8">
         <v>4151</v>
       </c>
       <c r="R8">
-        <v>9726</v>
+        <v>9725</v>
       </c>
       <c r="S8">
-        <v>14235</v>
+        <v>14230</v>
       </c>
       <c r="T8">
         <v>3002</v>
       </c>
       <c r="U8">
-        <v>7743</v>
+        <v>7742</v>
       </c>
       <c r="V8">
         <v>5524</v>
@@ -1242,16 +1242,16 @@
         <v>7189</v>
       </c>
       <c r="AB8">
-        <v>141299</v>
+        <v>141285</v>
       </c>
       <c r="AC8">
-        <v>12808</v>
+        <v>12809</v>
       </c>
       <c r="AD8">
         <v>663</v>
       </c>
       <c r="AE8">
-        <v>154780</v>
+        <v>154766</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1259,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="C9">
         <v>826</v>
@@ -1274,19 +1274,19 @@
         <v>1562</v>
       </c>
       <c r="G9">
-        <v>15338</v>
+        <v>15334</v>
       </c>
       <c r="H9">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="I9">
         <v>1850</v>
       </c>
       <c r="J9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K9">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L9">
         <v>1149</v>
@@ -1295,28 +1295,28 @@
         <v>1031</v>
       </c>
       <c r="N9">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="O9">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P9">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="Q9">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="R9">
-        <v>8335</v>
+        <v>8338</v>
       </c>
       <c r="S9">
-        <v>13871</v>
+        <v>13861</v>
       </c>
       <c r="T9">
         <v>2067</v>
       </c>
       <c r="U9">
-        <v>6363</v>
+        <v>6362</v>
       </c>
       <c r="V9">
         <v>5554</v>
@@ -1337,16 +1337,16 @@
         <v>7415</v>
       </c>
       <c r="AB9">
-        <v>132902</v>
+        <v>132889</v>
       </c>
       <c r="AC9">
-        <v>11978</v>
+        <v>11972</v>
       </c>
       <c r="AD9">
         <v>626</v>
       </c>
       <c r="AE9">
-        <v>145517</v>
+        <v>145498</v>
       </c>
     </row>
   </sheetData>
